--- a/result/gr100_06_simulated/details.xlsx
+++ b/result/gr100_06_simulated/details.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8739933967590332</v>
+        <v>0.761892557144165</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>6612.141753664268</v>
+        <v>5004.145919138922</v>
       </c>
       <c r="F2" t="n">
         <v>0.208867910872509</v>
@@ -588,55 +588,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1551875695192478</v>
+        <v>0.1591121006873033</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1502832884599905</v>
+        <v>0.1580498251401419</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1480033849235156</v>
+        <v>0.1569477563808311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1461011469349364</v>
+        <v>0.1514760038114269</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1461011469349364</v>
+        <v>0.1387910209955977</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1461011469349364</v>
+        <v>0.128097967178595</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1455792882470058</v>
+        <v>0.1196284634314561</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1455792882470058</v>
+        <v>0.113923161534484</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1455544074239873</v>
+        <v>0.1100390360560334</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1455544074239873</v>
+        <v>0.1072477364516625</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1452497298528076</v>
+        <v>0.1058260440133503</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1451635495176785</v>
+        <v>0.1056167265907091</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1451635495176785</v>
+        <v>0.1056167265907091</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1451635495176785</v>
+        <v>0.1055665025859655</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1450229869475575</v>
+        <v>0.1055665025859655</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1448916521182118</v>
+        <v>0.1055665025859655</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1448916521182118</v>
+        <v>0.1055467040767821</v>
       </c>
     </row>
     <row r="3">
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8979916572570801</v>
+        <v>0.9212172031402588</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>6589.688731196426</v>
+        <v>6610.398598347603</v>
       </c>
       <c r="F3" t="n">
         <v>0.208867910872509</v>
@@ -664,58 +664,58 @@
         <v>0.1787818880657303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1652613246878618</v>
+        <v>0.1659774421428239</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1640910844699239</v>
+        <v>0.1575833443593304</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1540457803075376</v>
+        <v>0.1483452988422972</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1466035192821176</v>
+        <v>0.1471429309653767</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1462648714123168</v>
+        <v>0.1464998121539182</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1452562309821908</v>
+        <v>0.1464998121539182</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1452119053585963</v>
+        <v>0.1456481618502464</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1452119053585963</v>
+        <v>0.14536687153685</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1452119053585963</v>
+        <v>0.14526248562215</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1445131946907107</v>
+        <v>0.14526248562215</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1445131946907107</v>
+        <v>0.1452530009339852</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1445131946907107</v>
+        <v>0.1452530009339852</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1445131946907107</v>
+        <v>0.1451290852085406</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1445131946907107</v>
+        <v>0.1448954947982222</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1445131946907107</v>
+        <v>0.1448840077303946</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1444928205087754</v>
+        <v>0.1448840077303946</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1444928205087754</v>
+        <v>0.1448576724824094</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1444539713683514</v>
+        <v>0.1448576724824094</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8719744682312012</v>
+        <v>0.8369781970977783</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>6553.813383665969</v>
+        <v>6626.218627873102</v>
       </c>
       <c r="F4" t="n">
         <v>0.208867910872509</v>
@@ -746,55 +746,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1588302778587753</v>
+        <v>0.1611938656072738</v>
       </c>
       <c r="J4" t="n">
-        <v>0.151729018302404</v>
+        <v>0.1546682612804144</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1490786776571426</v>
+        <v>0.1546682612804144</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1443272651304629</v>
+        <v>0.1486563650517406</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1443272651304629</v>
+        <v>0.1472052572776577</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1443272651304629</v>
+        <v>0.1460995352558807</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1443272651304629</v>
+        <v>0.1460995352558807</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.1457508374445595</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.1456574230548097</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.1456574230548097</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.1456574230548097</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.145559858344043</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.145559858344043</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1438237725211586</v>
+        <v>0.1454005385891808</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1437854865888544</v>
+        <v>0.1454005385891808</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1437854865888544</v>
+        <v>0.1452570449163436</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1437546468550871</v>
+        <v>0.145166055124232</v>
       </c>
     </row>
     <row r="5">
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9149773120880127</v>
+        <v>0.8124673366546631</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>6602.92436165801</v>
+        <v>6550.770932176638</v>
       </c>
       <c r="F5" t="n">
         <v>0.208867910872509</v>
@@ -825,55 +825,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.159481840114149</v>
+        <v>0.1489576926698324</v>
       </c>
       <c r="J5" t="n">
-        <v>0.149988513793528</v>
+        <v>0.1456591353442539</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1453754321981633</v>
+        <v>0.1448654676888615</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1452349065980056</v>
+        <v>0.1448654676888615</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1452349065980056</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1452349065980056</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1452349065980056</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1452349065980056</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1450099326387637</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1450099326387637</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1448125415632544</v>
+        <v>0.1440916580076643</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1448125415632544</v>
+        <v>0.143781316003586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1447716771711584</v>
+        <v>0.143781316003586</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1447716771711584</v>
+        <v>0.143781316003586</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1447716771711584</v>
+        <v>0.143781316003586</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1447224204467163</v>
+        <v>0.143781316003586</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1447119758607799</v>
+        <v>0.1436953398085115</v>
       </c>
     </row>
     <row r="6">
@@ -886,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8600215911865234</v>
+        <v>0.8125030994415283</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>6564.860846892024</v>
+        <v>6611.003830806123</v>
       </c>
       <c r="F6" t="n">
         <v>0.208867910872509</v>
@@ -904,55 +904,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1507452339824473</v>
+        <v>0.1590916124052761</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1507452339824473</v>
+        <v>0.1497386987777205</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1482194253273161</v>
+        <v>0.1497386987777205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1465694787060445</v>
+        <v>0.1461098103723791</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1445118031572381</v>
+        <v>0.1456501393930245</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1440978323459037</v>
+        <v>0.1453273294858854</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1440978323459037</v>
+        <v>0.1450487739632993</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1440596107377556</v>
+        <v>0.1450487739632993</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1440596107377556</v>
+        <v>0.1450487739632993</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1440596107377556</v>
+        <v>0.1450487739632993</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1440596107377556</v>
+        <v>0.1449515017530635</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1440596107377556</v>
+        <v>0.1449515017530635</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1440596107377556</v>
+        <v>0.1449070437887896</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1440302419694057</v>
+        <v>0.1449070437887896</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1440181367958521</v>
+        <v>0.1448694703860842</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1439699970154391</v>
+        <v>0.1448694703860842</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1439699970154391</v>
+        <v>0.1448694703860842</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8710091114044189</v>
+        <v>0.7969005107879639</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>6558.008737646551</v>
+        <v>6597.564719639326</v>
       </c>
       <c r="F7" t="n">
         <v>0.208867910872509</v>
@@ -983,55 +983,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1559201196097005</v>
+        <v>0.154725508759533</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1515234810060206</v>
+        <v>0.1466471724221224</v>
       </c>
       <c r="K7" t="n">
-        <v>0.149159889465816</v>
+        <v>0.1455559557156018</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1455239211736182</v>
+        <v>0.1455559557156018</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1439912683344629</v>
+        <v>0.1448365411940499</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1439912683344629</v>
+        <v>0.1448365411940499</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144743445378222</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144743445378222</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144743445378222</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144743445378222</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144743445378222</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144607499408174</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144607499408174</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144607499408174</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144607499408174</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1438396126361859</v>
+        <v>0.144607499408174</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1438364276344357</v>
+        <v>0.144607499408174</v>
       </c>
     </row>
     <row r="8">
@@ -1044,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8699874877929688</v>
+        <v>0.765596866607666</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>6587.823524158435</v>
+        <v>6604.524119208962</v>
       </c>
       <c r="F8" t="n">
         <v>0.208867910872509</v>
@@ -1062,55 +1062,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1536165700819423</v>
+        <v>0.1523912600582533</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1508709026031438</v>
+        <v>0.1491476697685886</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1470288855295906</v>
+        <v>0.145268842291306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1456652319432448</v>
+        <v>0.145268842291306</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1456652319432448</v>
+        <v>0.145268842291306</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1445127698675749</v>
+        <v>0.1452438501289801</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1445127698675749</v>
+        <v>0.1447563880847753</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1445127698675749</v>
+        <v>0.1447443380672674</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1445127698675749</v>
+        <v>0.1447432650976744</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1444346113498958</v>
+        <v>0.1447431695572533</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1444346113498958</v>
+        <v>0.1447431610500485</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1444346113498958</v>
+        <v>0.1447431602925415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1444346113498958</v>
+        <v>0.1447431602250908</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1444346113498958</v>
+        <v>0.1447431602190848</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1444346113498958</v>
+        <v>0.14474316021855</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1444236060227592</v>
+        <v>0.1447431602185024</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1444176125566946</v>
+        <v>0.1447431602184983</v>
       </c>
     </row>
     <row r="9">
@@ -1123,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.099027872085571</v>
+        <v>0.7656512260437012</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6642.499065555636</v>
+        <v>6654.984178723152</v>
       </c>
       <c r="F9" t="n">
         <v>0.208867910872509</v>
@@ -1141,55 +1141,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1617342144176517</v>
+        <v>0.1620894090517024</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1560981394222952</v>
+        <v>0.1491072555480821</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1510589482581013</v>
+        <v>0.1491072555480821</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1462156364566858</v>
+        <v>0.1472069467639355</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1462156364566858</v>
+        <v>0.1466243795488526</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1462115343432097</v>
+        <v>0.1461515427319236</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1462115343432097</v>
+        <v>0.1460152903844381</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.1458778275198692</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.1458552990805375</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.145829036414188</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.145829036414188</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.145829036414188</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.145808795063287</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1455785882168488</v>
+        <v>0.145808795063287</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1455593679788735</v>
+        <v>0.145808795063287</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1455593679788735</v>
+        <v>0.1457711100432546</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1454834125839305</v>
+        <v>0.1457267871096131</v>
       </c>
     </row>
     <row r="10">
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.008990287780762</v>
+        <v>0.7968888282775879</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>6595.153693843973</v>
+        <v>6571.994020096618</v>
       </c>
       <c r="F10" t="n">
         <v>0.208867910872509</v>
@@ -1220,55 +1220,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1588330799542886</v>
+        <v>0.1556372812781492</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1517924413489669</v>
+        <v>0.1456004890275751</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1469559512466136</v>
+        <v>0.1448479815497384</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1469559512466136</v>
+        <v>0.1448479815497384</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1469559512466136</v>
+        <v>0.1448479815497384</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1469559512466136</v>
+        <v>0.1445595037316112</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1461351323024047</v>
+        <v>0.1445595037316112</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1451537929280352</v>
+        <v>0.1444099677207977</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1451537929280352</v>
+        <v>0.144339319459255</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1450853038097654</v>
+        <v>0.1443332184503955</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1450853038097654</v>
+        <v>0.1443326782161372</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1450853038097654</v>
+        <v>0.1443326303792859</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1448456799791785</v>
+        <v>0.1443326261434117</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1448456799791785</v>
+        <v>0.1443326257683321</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1448456799791785</v>
+        <v>0.1442570167203685</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1445605008546583</v>
+        <v>0.1441090452260549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1445605008546583</v>
+        <v>0.1441090452260549</v>
       </c>
     </row>
     <row r="11">
@@ -1281,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9928200244903564</v>
+        <v>0.7968745231628418</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>5119.067123126178</v>
+        <v>6570.226711607804</v>
       </c>
       <c r="F11" t="n">
         <v>0.208867910872509</v>
@@ -1299,55 +1299,55 @@
         <v>0.1659774421428239</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1619098628545874</v>
+        <v>0.1613351017488101</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1590075319679318</v>
+        <v>0.1520222739381487</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1528307810759151</v>
+        <v>0.1501566988623868</v>
       </c>
       <c r="L11" t="n">
-        <v>0.147200799103122</v>
+        <v>0.1474027962962519</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1426098245783479</v>
+        <v>0.1464796391993254</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1285270145014414</v>
+        <v>0.1443758838636448</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1205062865289321</v>
+        <v>0.1443758838636448</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1173189177901035</v>
+        <v>0.1443758838636448</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1112749385016658</v>
+        <v>0.1443158444294222</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1093775057667864</v>
+        <v>0.1442033363479061</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1088073043060923</v>
+        <v>0.1442033363479061</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1088073043060923</v>
+        <v>0.1442033363479061</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1085084723332204</v>
+        <v>0.1440745947681833</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1083137177935566</v>
+        <v>0.1440745947681833</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1079403365290258</v>
+        <v>0.1440745947681833</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1078899573415353</v>
+        <v>0.1440745947681833</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1077868834917383</v>
+        <v>0.1440745947681833</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_06_simulated/details.xlsx
+++ b/result/gr100_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.761892557144165</v>
+        <v>1.885011672973633</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5004.145919138922</v>
+        <v>6806.783671681492</v>
       </c>
       <c r="F2" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1811736602975099</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1591121006873033</v>
+        <v>0.1646373620654799</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1580498251401419</v>
+        <v>0.153424733464436</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1569477563808311</v>
+        <v>0.151810274894841</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1514760038114269</v>
+        <v>0.1500407159876893</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1387910209955977</v>
+        <v>0.1500407159876893</v>
       </c>
       <c r="N2" t="n">
-        <v>0.128097967178595</v>
+        <v>0.1498802964900214</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1196284634314561</v>
+        <v>0.1498802964900214</v>
       </c>
       <c r="P2" t="n">
-        <v>0.113923161534484</v>
+        <v>0.1498802964900214</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1100390360560334</v>
+        <v>0.1491726141855238</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1072477364516625</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1058260440133503</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1056167265907091</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1056167265907091</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1055665025859655</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1055665025859655</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1055665025859655</v>
+        <v>0.1487110274206565</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1055467040767821</v>
+        <v>0.1486858415532454</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9212172031402588</v>
+        <v>1.623996734619141</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>6610.398598347603</v>
+        <v>6884.128429302994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1872033993012155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1575833443593304</v>
+        <v>0.1701453130149286</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1483452988422972</v>
+        <v>0.1601306333182273</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1471429309653767</v>
+        <v>0.1519673006992826</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1464998121539182</v>
+        <v>0.1505809403848549</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1464998121539182</v>
+        <v>0.1505809403848549</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1456481618502464</v>
+        <v>0.1505809403848549</v>
       </c>
       <c r="O3" t="n">
-        <v>0.14536687153685</v>
+        <v>0.1505809403848549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.14526248562215</v>
+        <v>0.1505809403848549</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.14526248562215</v>
+        <v>0.1504224749945868</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1452530009339852</v>
+        <v>0.1503328034145848</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1452530009339852</v>
+        <v>0.1503328034145848</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1451290852085406</v>
+        <v>0.1503328034145848</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1448954947982222</v>
+        <v>0.1503328034145848</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1448840077303946</v>
+        <v>0.1503328034145848</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1448840077303946</v>
+        <v>0.1503328034145848</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1448576724824094</v>
+        <v>0.1502721948985342</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1448576724824094</v>
+        <v>0.1501935366335866</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8369781970977783</v>
+        <v>1.711998224258423</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>6626.218627873102</v>
+        <v>6801.461594161514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.181428182682164</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1611938656072738</v>
+        <v>0.1656014597423033</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1546682612804144</v>
+        <v>0.1573990214038638</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1546682612804144</v>
+        <v>0.1506633937187187</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1486563650517406</v>
+        <v>0.1489662791034382</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1472052572776577</v>
+        <v>0.1489662791034382</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1460995352558807</v>
+        <v>0.1489662791034382</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1460995352558807</v>
+        <v>0.1489662791034382</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1457508374445595</v>
+        <v>0.1489662791034382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1456574230548097</v>
+        <v>0.1489662791034382</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1456574230548097</v>
+        <v>0.1488605354935528</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1456574230548097</v>
+        <v>0.1488605354935528</v>
       </c>
       <c r="T4" t="n">
-        <v>0.145559858344043</v>
+        <v>0.1488605354935528</v>
       </c>
       <c r="U4" t="n">
-        <v>0.145559858344043</v>
+        <v>0.1488605354935528</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1454005385891808</v>
+        <v>0.1488605354935528</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1454005385891808</v>
+        <v>0.1487250669840534</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1452570449163436</v>
+        <v>0.1487250669840534</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.145166055124232</v>
+        <v>0.1485820973520763</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8124673366546631</v>
+        <v>1.66700267791748</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>6550.770932176638</v>
+        <v>6712.782018365953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1906308968166822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1489576926698324</v>
+        <v>0.169904710840951</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1456591353442539</v>
+        <v>0.1537924725610029</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1448654676888615</v>
+        <v>0.1513749513919128</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1448654676888615</v>
+        <v>0.1513749513919128</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.148322504744229</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.147657906098213</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.147657906098213</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.1476018783594891</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.1476018783594891</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.1476018783594891</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1440916580076643</v>
+        <v>0.1475136820048581</v>
       </c>
       <c r="T5" t="n">
-        <v>0.143781316003586</v>
+        <v>0.1475136820048581</v>
       </c>
       <c r="U5" t="n">
-        <v>0.143781316003586</v>
+        <v>0.1468534506504084</v>
       </c>
       <c r="V5" t="n">
-        <v>0.143781316003586</v>
+        <v>0.1468534506504084</v>
       </c>
       <c r="W5" t="n">
-        <v>0.143781316003586</v>
+        <v>0.1468534506504084</v>
       </c>
       <c r="X5" t="n">
-        <v>0.143781316003586</v>
+        <v>0.1468534506504084</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1436953398085115</v>
+        <v>0.1468534506504084</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125030994415283</v>
+        <v>1.814995765686035</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>6611.003830806123</v>
+        <v>6925.030223933425</v>
       </c>
       <c r="F6" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1744302171245432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1590916124052761</v>
+        <v>0.1716635861134211</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1497386987777205</v>
+        <v>0.1628475448196577</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1497386987777205</v>
+        <v>0.1628475448196577</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1461098103723791</v>
+        <v>0.1594992282521263</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1456501393930245</v>
+        <v>0.1594992282521263</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1453273294858854</v>
+        <v>0.1585767820002412</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1450487739632993</v>
+        <v>0.1579806163026953</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1450487739632993</v>
+        <v>0.1521911351186682</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1450487739632993</v>
+        <v>0.1513932547330028</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1450487739632993</v>
+        <v>0.1513932547330028</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1449515017530635</v>
+        <v>0.1513932547330028</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1449515017530635</v>
+        <v>0.1513932547330028</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1449070437887896</v>
+        <v>0.1513932547330028</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1449070437887896</v>
+        <v>0.1511459024096665</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1448694703860842</v>
+        <v>0.1511459024096665</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1448694703860842</v>
+        <v>0.1509979260220096</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1448694703860842</v>
+        <v>0.1509908425718016</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7969005107879639</v>
+        <v>1.653035879135132</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>6597.564719639326</v>
+        <v>6757.639205610843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1901283472164353</v>
       </c>
       <c r="I7" t="n">
-        <v>0.154725508759533</v>
+        <v>0.1748017811196545</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1466471724221224</v>
+        <v>0.1586952293583923</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1455559557156018</v>
+        <v>0.1543582244312179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1455559557156018</v>
+        <v>0.1517177536499814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1448365411940499</v>
+        <v>0.150174287939802</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1448365411940499</v>
+        <v>0.1482042938436714</v>
       </c>
       <c r="O7" t="n">
-        <v>0.144743445378222</v>
+        <v>0.1482042938436714</v>
       </c>
       <c r="P7" t="n">
-        <v>0.144743445378222</v>
+        <v>0.1482042938436714</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.144743445378222</v>
+        <v>0.1482042938436714</v>
       </c>
       <c r="R7" t="n">
-        <v>0.144743445378222</v>
+        <v>0.1481233185688406</v>
       </c>
       <c r="S7" t="n">
-        <v>0.144743445378222</v>
+        <v>0.1481233185688406</v>
       </c>
       <c r="T7" t="n">
-        <v>0.144607499408174</v>
+        <v>0.1481233185688406</v>
       </c>
       <c r="U7" t="n">
-        <v>0.144607499408174</v>
+        <v>0.1481233185688406</v>
       </c>
       <c r="V7" t="n">
-        <v>0.144607499408174</v>
+        <v>0.1481233185688406</v>
       </c>
       <c r="W7" t="n">
-        <v>0.144607499408174</v>
+        <v>0.1479637093993097</v>
       </c>
       <c r="X7" t="n">
-        <v>0.144607499408174</v>
+        <v>0.1479637093993097</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.144607499408174</v>
+        <v>0.1477278597584959</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.765596866607666</v>
+        <v>1.774947643280029</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>6604.524119208962</v>
+        <v>6692.330289027674</v>
       </c>
       <c r="F8" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.186494837268027</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1523912600582533</v>
+        <v>0.1639015292423214</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1491476697685886</v>
+        <v>0.1590414918004688</v>
       </c>
       <c r="K8" t="n">
-        <v>0.145268842291306</v>
+        <v>0.1501816870455802</v>
       </c>
       <c r="L8" t="n">
-        <v>0.145268842291306</v>
+        <v>0.1484580760284703</v>
       </c>
       <c r="M8" t="n">
-        <v>0.145268842291306</v>
+        <v>0.1484580760284703</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1452438501289801</v>
+        <v>0.1480200015087329</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1447563880847753</v>
+        <v>0.1474528095956709</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1447443380672674</v>
+        <v>0.1474528095956709</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1447432650976744</v>
+        <v>0.1474528095956709</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1447431695572533</v>
+        <v>0.1474528095956709</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1447431610500485</v>
+        <v>0.1471905636772994</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1447431602925415</v>
+        <v>0.1471905636772994</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1447431602250908</v>
+        <v>0.1471905636772994</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1447431602190848</v>
+        <v>0.1468482393236899</v>
       </c>
       <c r="W8" t="n">
-        <v>0.14474316021855</v>
+        <v>0.1465003364333648</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1447431602185024</v>
+        <v>0.1465003364333648</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1447431602184983</v>
+        <v>0.1464547814625277</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7656512260437012</v>
+        <v>1.58800220489502</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6654.984178723152</v>
+        <v>6904.865481738917</v>
       </c>
       <c r="F9" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1695993794030745</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1620894090517024</v>
+        <v>0.1541227023999988</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1491072555480821</v>
+        <v>0.1524378853406889</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1491072555480821</v>
+        <v>0.1519122789697667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1472069467639355</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1466243795488526</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1461515427319236</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1460152903844381</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1458778275198692</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1458552990805375</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="R9" t="n">
-        <v>0.145829036414188</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="S9" t="n">
-        <v>0.145829036414188</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="T9" t="n">
-        <v>0.145829036414188</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="U9" t="n">
-        <v>0.145808795063287</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="V9" t="n">
-        <v>0.145808795063287</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="W9" t="n">
-        <v>0.145808795063287</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1457711100432546</v>
+        <v>0.1505977676752225</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1457267871096131</v>
+        <v>0.1505977676752225</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7968888282775879</v>
+        <v>1.646013498306274</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>6571.994020096618</v>
+        <v>6682.48225932294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1868489508535622</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1556372812781492</v>
+        <v>0.1726400685735788</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1456004890275751</v>
+        <v>0.1532344469202108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1448479815497384</v>
+        <v>0.1488140718027697</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1448479815497384</v>
+        <v>0.1488140718027697</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1448479815497384</v>
+        <v>0.1488140718027697</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1445595037316112</v>
+        <v>0.1488140718027697</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1445595037316112</v>
+        <v>0.1487365734560907</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1444099677207977</v>
+        <v>0.1486382911904435</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.144339319459255</v>
+        <v>0.1474241066977662</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1443332184503955</v>
+        <v>0.1474241066977662</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1443326782161372</v>
+        <v>0.1469875173914951</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1443326303792859</v>
+        <v>0.1467019731976454</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1443326261434117</v>
+        <v>0.1464912416848005</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1443326257683321</v>
+        <v>0.146402187889474</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1442570167203685</v>
+        <v>0.1462819105192005</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1441090452260549</v>
+        <v>0.1462819105192005</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1441090452260549</v>
+        <v>0.1462628120725719</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7968745231628418</v>
+        <v>1.65595817565918</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>6570.226711607804</v>
+        <v>6787.794216585053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.208867910872509</v>
+        <v>0.220871380733333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1787818880657303</v>
+        <v>0.2032341243744011</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1659774421428239</v>
+        <v>0.1738589344658298</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1613351017488101</v>
+        <v>0.1679048363105065</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1520222739381487</v>
+        <v>0.1595504085035202</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1501566988623868</v>
+        <v>0.1535498982761371</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1474027962962519</v>
+        <v>0.1535498982761371</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1464796391993254</v>
+        <v>0.1526275233419406</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1443758838636448</v>
+        <v>0.15108600040064</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1443758838636448</v>
+        <v>0.1496161460055117</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1443758838636448</v>
+        <v>0.1494513086152274</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1443158444294222</v>
+        <v>0.1489300881227507</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1442033363479061</v>
+        <v>0.1489300881227507</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1442033363479061</v>
+        <v>0.1489300881227507</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1442033363479061</v>
+        <v>0.1489300881227507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1440745947681833</v>
+        <v>0.1489300881227507</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1440745947681833</v>
+        <v>0.1484224038657344</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1440745947681833</v>
+        <v>0.1484224038657344</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1440745947681833</v>
+        <v>0.1484224038657344</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1440745947681833</v>
+        <v>0.1483156767365507</v>
       </c>
     </row>
   </sheetData>
